--- a/anti-spec-main.xlsx
+++ b/anti-spec-main.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salman/Dropbox/Research/Anti-spec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{885A3C3B-019F-F04A-8CF2-B7357A4F8C7D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4001F301-7BAC-1F41-8B2D-6C6F997F3707}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="883">
   <si>
     <t>Vulnerable program</t>
   </si>
@@ -5216,9 +5216,6 @@
     <t>The out of bounds read occurs in heap.</t>
   </si>
   <si>
-    <t>***out of bounds write</t>
-  </si>
-  <si>
     <t>A 10-byte buff takes in 25 bytes from user input.</t>
   </si>
   <si>
@@ -5282,9 +5279,6 @@
   </si>
   <si>
     <t>Reading beyond dynamically allocated buffer would leak some information from heap.</t>
-  </si>
-  <si>
-    <t>***NULL dereference</t>
   </si>
   <si>
     <t>The program is copying  elements from NULL into an array.</t>
@@ -6185,6 +6179,41 @@
     }
     return EXIT_FAILURE;
 }</t>
+  </si>
+  <si>
+    <t>CWE-125 Out-of-bounds Read</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CWE-125: Out-of-bounds Read</t>
+  </si>
+  <si>
+    <t>CWE-125: Out-of-bounds Read Vuln</t>
+  </si>
+  <si>
+    <t>CWE-476: Null pointer dereference</t>
+  </si>
+  <si>
+    <t>CWE-785: Use of Path Manipulation Function without Maximum-sized Buffer</t>
+  </si>
+  <si>
+    <t>CWE-119: Improper Restriction of Operations within the Bounds of a Memory Buffer 
+CWE-805: Buffer Access with Incorrect Length Value</t>
+  </si>
+  <si>
+    <t>CWE-798: Use of Hard-coded Credentials 
+CWE-131: Incorrect Calculation of Buffer Size</t>
+  </si>
+  <si>
+    <t>CWE-824 Access of Uninitialized Pointer</t>
+  </si>
+  <si>
+    <t>CWE-120 Buffer copy without checking the size of input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE-476 -- Null dref </t>
+  </si>
+  <si>
+    <t>CWE-131: Incorrect Calculation of Buffer Size</t>
   </si>
 </sst>
 </file>
@@ -6884,10 +6913,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AML130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="83" zoomScaleNormal="200" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="200" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="O53" sqref="O53"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6948,7 +6977,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>12</v>
@@ -7795,7 +7824,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:20" ht="56" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="70" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>161</v>
       </c>
@@ -8851,15 +8880,15 @@
     </row>
     <row r="51" spans="1:15 1025:1025" ht="42" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="12" t="s">
@@ -8868,31 +8897,31 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="12" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M51" s="12"/>
       <c r="N51" s="12" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="O51" s="12"/>
     </row>
     <row r="52" spans="1:15 1025:1025" ht="70" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
@@ -8907,7 +8936,7 @@
     </row>
     <row r="53" spans="1:15 1025:1025" ht="322" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>323</v>
@@ -8915,7 +8944,7 @@
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12" t="s">
@@ -8923,56 +8952,56 @@
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>857</v>
+      </c>
+      <c r="K53" s="32" t="s">
         <v>858</v>
       </c>
-      <c r="J53" s="14" t="s">
+      <c r="L53" s="12" t="s">
         <v>859</v>
       </c>
-      <c r="K53" s="32" t="s">
+      <c r="M53" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="N53" s="12" t="s">
         <v>860</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>861</v>
-      </c>
-      <c r="M53" s="12" t="s">
-        <v>873</v>
-      </c>
-      <c r="N53" s="12" t="s">
-        <v>862</v>
       </c>
       <c r="O53" s="12"/>
     </row>
     <row r="54" spans="1:15 1025:1025" ht="336" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="K54" s="14" t="s">
         <v>851</v>
       </c>
-      <c r="J54" s="12" t="s">
+      <c r="L54" s="31" t="s">
         <v>852</v>
-      </c>
-      <c r="K54" s="14" t="s">
-        <v>853</v>
-      </c>
-      <c r="L54" s="31" t="s">
-        <v>854</v>
       </c>
       <c r="M54" s="31"/>
       <c r="N54" s="12" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="O54" s="12"/>
     </row>
@@ -11048,7 +11077,9 @@
       <c r="A107" s="19" t="s">
         <v>704</v>
       </c>
-      <c r="B107" s="12"/>
+      <c r="B107" s="12" t="s">
+        <v>872</v>
+      </c>
       <c r="C107" s="19"/>
       <c r="D107" s="19"/>
       <c r="E107" s="21"/>
@@ -11079,6 +11110,9 @@
       <c r="A108" s="19" t="s">
         <v>710</v>
       </c>
+      <c r="B108" s="1" t="s">
+        <v>873</v>
+      </c>
       <c r="C108" s="12" t="s">
         <v>711</v>
       </c>
@@ -11111,7 +11145,7 @@
     <row r="109" spans="1:15" ht="130" x14ac:dyDescent="0.2">
       <c r="A109" s="24"/>
       <c r="B109" s="25" t="s">
-        <v>719</v>
+        <v>41</v>
       </c>
       <c r="C109" s="26" t="s">
         <v>16</v>
@@ -11120,25 +11154,25 @@
         <v>17</v>
       </c>
       <c r="E109" s="27" t="s">
+        <v>719</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G109" s="27" t="s">
         <v>720</v>
       </c>
-      <c r="F109" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G109" s="27" t="s">
+      <c r="H109" s="27" t="s">
         <v>721</v>
       </c>
-      <c r="H109" s="27" t="s">
+      <c r="I109" s="27" t="s">
         <v>722</v>
       </c>
-      <c r="I109" s="27" t="s">
+      <c r="J109" s="27" t="s">
         <v>723</v>
       </c>
-      <c r="J109" s="27" t="s">
+      <c r="K109" s="27" t="s">
         <v>724</v>
-      </c>
-      <c r="K109" s="27" t="s">
-        <v>725</v>
       </c>
       <c r="L109" s="27" t="s">
         <v>33</v>
@@ -11152,7 +11186,7 @@
     <row r="110" spans="1:15" ht="156" x14ac:dyDescent="0.2">
       <c r="A110" s="24"/>
       <c r="B110" s="25" t="s">
-        <v>711</v>
+        <v>874</v>
       </c>
       <c r="C110" s="26" t="s">
         <v>16</v>
@@ -11161,28 +11195,28 @@
         <v>17</v>
       </c>
       <c r="E110" s="27" t="s">
+        <v>725</v>
+      </c>
+      <c r="F110" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G110" s="27" t="s">
         <v>726</v>
       </c>
-      <c r="F110" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G110" s="27" t="s">
+      <c r="H110" s="27" t="s">
         <v>727</v>
       </c>
-      <c r="H110" s="27" t="s">
+      <c r="I110" s="27" t="s">
         <v>728</v>
       </c>
-      <c r="I110" s="27" t="s">
+      <c r="J110" s="27" t="s">
         <v>729</v>
       </c>
-      <c r="J110" s="27" t="s">
+      <c r="K110" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L110" s="27" t="s">
         <v>730</v>
-      </c>
-      <c r="K110" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="L110" s="27" t="s">
-        <v>731</v>
       </c>
       <c r="M110" s="27"/>
       <c r="N110" s="27" t="s">
@@ -11193,7 +11227,7 @@
     <row r="111" spans="1:15" ht="143" x14ac:dyDescent="0.2">
       <c r="A111" s="24"/>
       <c r="B111" s="25" t="s">
-        <v>732</v>
+        <v>875</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>16</v>
@@ -11202,22 +11236,22 @@
         <v>17</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F111" s="27" t="s">
         <v>62</v>
       </c>
       <c r="G111" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="H111" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="I111" s="27" t="s">
         <v>734</v>
       </c>
-      <c r="H111" s="27" t="s">
+      <c r="J111" s="27" t="s">
         <v>735</v>
-      </c>
-      <c r="I111" s="27" t="s">
-        <v>736</v>
-      </c>
-      <c r="J111" s="27" t="s">
-        <v>737</v>
       </c>
       <c r="K111" s="27" t="s">
         <v>33</v>
@@ -11233,10 +11267,10 @@
     </row>
     <row r="112" spans="1:15" ht="156" x14ac:dyDescent="0.2">
       <c r="A112" s="26" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>719</v>
+        <v>876</v>
       </c>
       <c r="C112" s="26" t="s">
         <v>16</v>
@@ -11245,7 +11279,7 @@
         <v>17</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F112" s="27" t="s">
         <v>19</v>
@@ -11254,16 +11288,16 @@
         <v>73</v>
       </c>
       <c r="H112" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="I112" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="J112" s="27" t="s">
         <v>740</v>
       </c>
-      <c r="I112" s="27" t="s">
+      <c r="K112" s="27" t="s">
         <v>741</v>
-      </c>
-      <c r="J112" s="27" t="s">
-        <v>742</v>
-      </c>
-      <c r="K112" s="27" t="s">
-        <v>743</v>
       </c>
       <c r="L112" s="27" t="s">
         <v>33</v>
@@ -11277,7 +11311,7 @@
     <row r="113" spans="1:15" ht="221" x14ac:dyDescent="0.2">
       <c r="A113" s="24"/>
       <c r="B113" s="25" t="s">
-        <v>732</v>
+        <v>832</v>
       </c>
       <c r="C113" s="26" t="s">
         <v>16</v>
@@ -11286,7 +11320,7 @@
         <v>17</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F113" s="27" t="s">
         <v>33</v>
@@ -11295,13 +11329,13 @@
         <v>73</v>
       </c>
       <c r="H113" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="I113" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="J113" s="27" t="s">
         <v>745</v>
-      </c>
-      <c r="I113" s="27" t="s">
-        <v>746</v>
-      </c>
-      <c r="J113" s="27" t="s">
-        <v>747</v>
       </c>
       <c r="K113" s="27" t="s">
         <v>33</v>
@@ -11314,15 +11348,15 @@
         <v>33</v>
       </c>
       <c r="O113" s="27" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="104" x14ac:dyDescent="0.2">
       <c r="A114" s="26" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>719</v>
+        <v>877</v>
       </c>
       <c r="C114" s="26" t="s">
         <v>16</v>
@@ -11331,7 +11365,7 @@
         <v>17</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F114" s="27" t="s">
         <v>33</v>
@@ -11340,23 +11374,23 @@
         <v>73</v>
       </c>
       <c r="H114" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="I114" s="27" t="s">
+        <v>750</v>
+      </c>
+      <c r="J114" s="27" t="s">
         <v>751</v>
       </c>
-      <c r="I114" s="27" t="s">
+      <c r="K114" s="27" t="s">
         <v>752</v>
-      </c>
-      <c r="J114" s="27" t="s">
-        <v>753</v>
-      </c>
-      <c r="K114" s="27" t="s">
-        <v>754</v>
       </c>
       <c r="L114" s="27" t="s">
         <v>33</v>
       </c>
       <c r="M114" s="27"/>
       <c r="N114" s="27" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="O114" s="28"/>
     </row>
@@ -11379,10 +11413,10 @@
     </row>
     <row r="116" spans="1:15" ht="195" x14ac:dyDescent="0.2">
       <c r="A116" s="26" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>719</v>
+        <v>878</v>
       </c>
       <c r="C116" s="26" t="s">
         <v>16</v>
@@ -11391,7 +11425,7 @@
         <v>17</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F116" s="27" t="s">
         <v>33</v>
@@ -11400,32 +11434,32 @@
         <v>73</v>
       </c>
       <c r="H116" s="27" t="s">
+        <v>756</v>
+      </c>
+      <c r="I116" s="27" t="s">
+        <v>757</v>
+      </c>
+      <c r="J116" s="27" t="s">
         <v>758</v>
       </c>
-      <c r="I116" s="27" t="s">
+      <c r="K116" s="27" t="s">
         <v>759</v>
-      </c>
-      <c r="J116" s="27" t="s">
-        <v>760</v>
-      </c>
-      <c r="K116" s="27" t="s">
-        <v>761</v>
       </c>
       <c r="L116" s="27" t="s">
         <v>33</v>
       </c>
       <c r="M116" s="27"/>
       <c r="N116" s="27" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="O116" s="28"/>
     </row>
     <row r="117" spans="1:15" ht="351" x14ac:dyDescent="0.2">
       <c r="A117" s="26" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>732</v>
+        <v>879</v>
       </c>
       <c r="C117" s="26" t="s">
         <v>16</v>
@@ -11434,7 +11468,7 @@
         <v>17</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F117" s="27" t="s">
         <v>33</v>
@@ -11443,16 +11477,16 @@
         <v>73</v>
       </c>
       <c r="H117" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="I117" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="J117" s="27" t="s">
         <v>765</v>
       </c>
-      <c r="I117" s="27" t="s">
+      <c r="K117" s="27" t="s">
         <v>766</v>
-      </c>
-      <c r="J117" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="K117" s="27" t="s">
-        <v>768</v>
       </c>
       <c r="L117" s="27" t="s">
         <v>33</v>
@@ -11466,7 +11500,7 @@
     <row r="118" spans="1:15" ht="143" x14ac:dyDescent="0.2">
       <c r="A118" s="24"/>
       <c r="B118" s="25" t="s">
-        <v>711</v>
+        <v>880</v>
       </c>
       <c r="C118" s="26" t="s">
         <v>16</v>
@@ -11475,7 +11509,7 @@
         <v>17</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F118" s="27" t="s">
         <v>33</v>
@@ -11484,34 +11518,34 @@
         <v>73</v>
       </c>
       <c r="H118" s="27" t="s">
+        <v>768</v>
+      </c>
+      <c r="I118" s="27" t="s">
+        <v>769</v>
+      </c>
+      <c r="J118" s="27" t="s">
         <v>770</v>
       </c>
-      <c r="I118" s="27" t="s">
+      <c r="K118" s="27" t="s">
         <v>771</v>
-      </c>
-      <c r="J118" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="K118" s="27" t="s">
-        <v>773</v>
       </c>
       <c r="L118" s="27" t="s">
         <v>33</v>
       </c>
       <c r="M118" s="27"/>
       <c r="N118" s="27" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="O118" s="27" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="104" x14ac:dyDescent="0.2">
       <c r="A119" s="26" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>719</v>
+        <v>146</v>
       </c>
       <c r="C119" s="26" t="s">
         <v>16</v>
@@ -11520,7 +11554,7 @@
         <v>17</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F119" s="27" t="s">
         <v>33</v>
@@ -11529,32 +11563,32 @@
         <v>73</v>
       </c>
       <c r="H119" s="27" t="s">
+        <v>776</v>
+      </c>
+      <c r="I119" s="27" t="s">
+        <v>777</v>
+      </c>
+      <c r="J119" s="27" t="s">
         <v>778</v>
       </c>
-      <c r="I119" s="27" t="s">
+      <c r="K119" s="27" t="s">
         <v>779</v>
-      </c>
-      <c r="J119" s="27" t="s">
-        <v>780</v>
-      </c>
-      <c r="K119" s="27" t="s">
-        <v>781</v>
       </c>
       <c r="L119" s="27" t="s">
         <v>33</v>
       </c>
       <c r="M119" s="27"/>
       <c r="N119" s="27" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="O119" s="28"/>
     </row>
     <row r="120" spans="1:15" ht="78" x14ac:dyDescent="0.2">
       <c r="A120" s="26" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>732</v>
+        <v>881</v>
       </c>
       <c r="C120" s="26" t="s">
         <v>16</v>
@@ -11563,7 +11597,7 @@
         <v>17</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F120" s="27" t="s">
         <v>33</v>
@@ -11573,29 +11607,29 @@
       </c>
       <c r="H120" s="27"/>
       <c r="I120" s="27" t="s">
+        <v>783</v>
+      </c>
+      <c r="J120" s="27" t="s">
+        <v>784</v>
+      </c>
+      <c r="K120" s="27" t="s">
         <v>785</v>
-      </c>
-      <c r="J120" s="27" t="s">
-        <v>786</v>
-      </c>
-      <c r="K120" s="27" t="s">
-        <v>787</v>
       </c>
       <c r="L120" s="27" t="s">
         <v>33</v>
       </c>
       <c r="M120" s="27"/>
       <c r="N120" s="27" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="O120" s="28"/>
     </row>
     <row r="121" spans="1:15" ht="39" x14ac:dyDescent="0.2">
       <c r="A121" s="26" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>719</v>
+        <v>41</v>
       </c>
       <c r="C121" s="26" t="s">
         <v>16</v>
@@ -11604,7 +11638,7 @@
         <v>17</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F121" s="27" t="s">
         <v>33</v>
@@ -11613,30 +11647,30 @@
         <v>73</v>
       </c>
       <c r="H121" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="I121" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="J121" s="27" t="s">
         <v>791</v>
       </c>
-      <c r="I121" s="27" t="s">
+      <c r="K121" s="27" t="s">
         <v>792</v>
-      </c>
-      <c r="J121" s="27" t="s">
-        <v>793</v>
-      </c>
-      <c r="K121" s="27" t="s">
-        <v>794</v>
       </c>
       <c r="L121" s="27" t="s">
         <v>33</v>
       </c>
       <c r="M121" s="27"/>
       <c r="N121" s="27" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="O121" s="28"/>
     </row>
     <row r="122" spans="1:15" ht="78" x14ac:dyDescent="0.2">
       <c r="A122" s="24"/>
       <c r="B122" s="25" t="s">
-        <v>719</v>
+        <v>41</v>
       </c>
       <c r="C122" s="26" t="s">
         <v>16</v>
@@ -11645,7 +11679,7 @@
         <v>17</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F122" s="27" t="s">
         <v>33</v>
@@ -11654,32 +11688,32 @@
         <v>73</v>
       </c>
       <c r="H122" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="I122" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="J122" s="27" t="s">
         <v>797</v>
       </c>
-      <c r="I122" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="J122" s="27" t="s">
-        <v>799</v>
-      </c>
       <c r="K122" s="27" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="L122" s="27" t="s">
         <v>33</v>
       </c>
       <c r="M122" s="27"/>
       <c r="N122" s="27" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="O122" s="28"/>
     </row>
     <row r="123" spans="1:15" ht="52" x14ac:dyDescent="0.2">
       <c r="A123" s="26" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>719</v>
+        <v>675</v>
       </c>
       <c r="C123" s="26" t="s">
         <v>16</v>
@@ -11688,7 +11722,7 @@
         <v>17</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F123" s="27" t="s">
         <v>33</v>
@@ -11697,30 +11731,30 @@
         <v>73</v>
       </c>
       <c r="H123" s="27" t="s">
+        <v>800</v>
+      </c>
+      <c r="I123" s="27" t="s">
+        <v>801</v>
+      </c>
+      <c r="J123" s="27" t="s">
         <v>802</v>
       </c>
-      <c r="I123" s="27" t="s">
+      <c r="K123" s="27" t="s">
         <v>803</v>
-      </c>
-      <c r="J123" s="27" t="s">
-        <v>804</v>
-      </c>
-      <c r="K123" s="27" t="s">
-        <v>805</v>
       </c>
       <c r="L123" s="27" t="s">
         <v>33</v>
       </c>
       <c r="M123" s="27"/>
       <c r="N123" s="27" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="O123" s="28"/>
     </row>
     <row r="124" spans="1:15" ht="52" x14ac:dyDescent="0.2">
       <c r="A124" s="24"/>
       <c r="B124" s="25" t="s">
-        <v>719</v>
+        <v>882</v>
       </c>
       <c r="C124" s="26" t="s">
         <v>16</v>
@@ -11729,7 +11763,7 @@
         <v>17</v>
       </c>
       <c r="E124" s="27" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F124" s="27" t="s">
         <v>33</v>
@@ -11738,30 +11772,30 @@
         <v>549</v>
       </c>
       <c r="H124" s="27" t="s">
+        <v>806</v>
+      </c>
+      <c r="I124" s="27" t="s">
+        <v>807</v>
+      </c>
+      <c r="J124" s="27" t="s">
         <v>808</v>
       </c>
-      <c r="I124" s="27" t="s">
+      <c r="K124" s="27" t="s">
         <v>809</v>
-      </c>
-      <c r="J124" s="27" t="s">
-        <v>810</v>
-      </c>
-      <c r="K124" s="27" t="s">
-        <v>811</v>
       </c>
       <c r="L124" s="27" t="s">
         <v>33</v>
       </c>
       <c r="M124" s="27"/>
       <c r="N124" s="27" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="O124" s="28"/>
     </row>
     <row r="125" spans="1:15" ht="65" x14ac:dyDescent="0.2">
       <c r="A125" s="24"/>
       <c r="B125" s="25" t="s">
-        <v>719</v>
+        <v>41</v>
       </c>
       <c r="C125" s="26" t="s">
         <v>16</v>
@@ -11770,7 +11804,7 @@
         <v>17</v>
       </c>
       <c r="E125" s="27" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F125" s="27" t="s">
         <v>33</v>
@@ -11779,23 +11813,23 @@
         <v>73</v>
       </c>
       <c r="H125" s="27" t="s">
+        <v>812</v>
+      </c>
+      <c r="I125" s="27" t="s">
+        <v>813</v>
+      </c>
+      <c r="J125" s="27" t="s">
         <v>814</v>
       </c>
-      <c r="I125" s="27" t="s">
+      <c r="K125" s="27" t="s">
         <v>815</v>
-      </c>
-      <c r="J125" s="27" t="s">
-        <v>816</v>
-      </c>
-      <c r="K125" s="27" t="s">
-        <v>817</v>
       </c>
       <c r="L125" s="27" t="s">
         <v>33</v>
       </c>
       <c r="M125" s="27"/>
       <c r="N125" s="27" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="O125" s="28"/>
     </row>
@@ -11818,10 +11852,10 @@
     </row>
     <row r="127" spans="1:15" ht="78" x14ac:dyDescent="0.2">
       <c r="A127" s="26" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>719</v>
+        <v>97</v>
       </c>
       <c r="C127" s="26" t="s">
         <v>16</v>
@@ -11830,7 +11864,7 @@
         <v>17</v>
       </c>
       <c r="E127" s="27" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F127" s="27" t="s">
         <v>33</v>
@@ -11839,32 +11873,32 @@
         <v>73</v>
       </c>
       <c r="H127" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="I127" s="27" t="s">
+        <v>820</v>
+      </c>
+      <c r="J127" s="27" t="s">
         <v>821</v>
       </c>
-      <c r="I127" s="27" t="s">
+      <c r="K127" s="27" t="s">
         <v>822</v>
-      </c>
-      <c r="J127" s="27" t="s">
-        <v>823</v>
-      </c>
-      <c r="K127" s="27" t="s">
-        <v>824</v>
       </c>
       <c r="L127" s="27" t="s">
         <v>33</v>
       </c>
       <c r="M127" s="27"/>
       <c r="N127" s="27" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="O127" s="28"/>
     </row>
     <row r="128" spans="1:15" ht="65" x14ac:dyDescent="0.2">
       <c r="A128" s="26" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>719</v>
+        <v>150</v>
       </c>
       <c r="C128" s="26" t="s">
         <v>16</v>
@@ -11873,7 +11907,7 @@
         <v>17</v>
       </c>
       <c r="E128" s="27" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F128" s="27" t="s">
         <v>33</v>
@@ -11882,32 +11916,32 @@
         <v>73</v>
       </c>
       <c r="H128" s="27" t="s">
+        <v>826</v>
+      </c>
+      <c r="I128" s="27" t="s">
+        <v>827</v>
+      </c>
+      <c r="J128" s="27" t="s">
         <v>828</v>
       </c>
-      <c r="I128" s="27" t="s">
+      <c r="K128" s="27" t="s">
         <v>829</v>
-      </c>
-      <c r="J128" s="27" t="s">
-        <v>830</v>
-      </c>
-      <c r="K128" s="27" t="s">
-        <v>831</v>
       </c>
       <c r="L128" s="27" t="s">
         <v>33</v>
       </c>
       <c r="M128" s="27"/>
       <c r="N128" s="27" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="O128" s="28"/>
     </row>
     <row r="129" spans="1:15 1025:1025" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>16</v>
@@ -11916,23 +11950,23 @@
         <v>17</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="H129" s="4"/>
       <c r="I129" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>837</v>
-      </c>
-      <c r="J129" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="K129" s="4" t="s">
-        <v>839</v>
       </c>
       <c r="L129" s="4" t="s">
         <v>25</v>
@@ -11943,7 +11977,7 @@
     </row>
     <row r="130" spans="1:15 1025:1025" s="30" customFormat="1" ht="364" x14ac:dyDescent="0.2">
       <c r="A130" s="29" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B130" s="29" t="s">
         <v>76</v>
@@ -11955,7 +11989,7 @@
         <v>17</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>62</v>
@@ -11965,20 +11999,20 @@
       </c>
       <c r="H130" s="4"/>
       <c r="I130" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="J130" s="4" t="s">
+      <c r="L130" s="29" t="s">
         <v>843</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="L130" s="29" t="s">
-        <v>845</v>
       </c>
       <c r="M130" s="29"/>
       <c r="N130" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="O130" s="29"/>
       <c r="AMK130" s="1"/>
